--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2118.27475</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5328.83284</v>
-      </c>
-      <c r="D2" t="n">
-        <v>851.84369</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.80428</v>
-      </c>
-      <c r="F2" t="n">
-        <v>932.23564</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5584.1669</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1210.71278</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1673.29704</v>
-      </c>
-      <c r="J2" t="n">
-        <v>596.82826</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1836.6287</v>
-      </c>
-      <c r="L2" t="n">
-        <v>356.46871</v>
-      </c>
-      <c r="M2" t="n">
-        <v>598.81834</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2944.4457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2125.70141</v>
-      </c>
-      <c r="P2" t="n">
-        <v>395.13158</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2213.62587</v>
-      </c>
-      <c r="R2" t="n">
-        <v>630.82433</v>
-      </c>
-      <c r="S2" t="n">
-        <v>120.4534</v>
-      </c>
-      <c r="T2" t="n">
-        <v>780.46699</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1450.98433</v>
-      </c>
-      <c r="V2" t="n">
-        <v>172.87253</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1264.64332</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4594.0068</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7385.36524</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4683.87718</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1300.16101</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4399.56354</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3105.58762</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5005.37753</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>317.35235</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>83678.16941</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1537.38614</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2458.05666</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3558.97779</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>338.2224</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1385.03926</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>3623.21873</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1706.29256</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4708.6153</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>157.72465</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2253.07233</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6371.06447</v>
-      </c>
-      <c r="D3" t="n">
-        <v>924.66479</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.00793</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1050.22211</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6130.16603</v>
-      </c>
-      <c r="H3" t="n">
-        <v>985.39868</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1922.87115</v>
-      </c>
-      <c r="J3" t="n">
-        <v>696.4974</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2055.4589</v>
-      </c>
-      <c r="L3" t="n">
-        <v>421.94917</v>
-      </c>
-      <c r="M3" t="n">
-        <v>661.23689</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3386.3022</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2305.53624</v>
-      </c>
-      <c r="P3" t="n">
-        <v>405.18887</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2515.50023</v>
-      </c>
-      <c r="R3" t="n">
-        <v>717.23972</v>
-      </c>
-      <c r="S3" t="n">
-        <v>109.79225</v>
-      </c>
-      <c r="T3" t="n">
-        <v>866.68359</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1684.64706</v>
-      </c>
-      <c r="V3" t="n">
-        <v>186.52021</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1522.59286</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5061.01883</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8903.768169999999</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5314.17939</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1526.2856</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4549.59451</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2769.52418</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5400.99037</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>333.95401</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>93182.86882</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1760.1301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2761.58202</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3872.4781</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>359.48522</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1579.34977</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>3975.51511</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1778.11335</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5650.71429</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>186.11639</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2717.20856</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8217.892400000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1098.25183</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.9761</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1181.04092</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7065.78296</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1106.08899</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2239.72484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>805.09582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2426.50161</v>
-      </c>
-      <c r="L4" t="n">
-        <v>510.99219</v>
-      </c>
-      <c r="M4" t="n">
-        <v>761.73197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4123.16208</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2560.50218</v>
-      </c>
-      <c r="P4" t="n">
-        <v>454.49171</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2833.65998</v>
-      </c>
-      <c r="R4" t="n">
-        <v>805.73051</v>
-      </c>
-      <c r="S4" t="n">
-        <v>107.33082</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1039.13954</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2040.39907</v>
-      </c>
-      <c r="V4" t="n">
-        <v>226.48356</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1943.74861</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5862.73037</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11130.96067</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5967.61218</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1762.63994</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4766.36741</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2743.34344</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6221.92606</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>363.73995</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>108585.80662</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2025.11064</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3202.63269</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4411.5718</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>408.28241</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1905.65722</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4660.94525</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1943.28251</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6472.0007</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>219.80016</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
